--- a/website/static/home/学習進捗記録_サンプル.yyyy.mm.dd.xlsx
+++ b/website/static/home/学習進捗記録_サンプル.yyyy.mm.dd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oyama\表彰\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebSiteRepositories\JavaBootcamp_Repository\java-bootcamp\website\static\home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4997B66D-E7F7-4451-8CC6-5612D20D92F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BA935F-9CB5-47B5-ACBB-D0E4F710F49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="-7410" windowWidth="26370" windowHeight="13215" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="798">
   <si>
     <t>テーブル名</t>
   </si>
@@ -3750,19 +3750,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>提出先：大山 h_ooyama@freestyles.jp  (CC:小林 k_kobayashi@freestyles.jp)</t>
-    <rPh sb="0" eb="3">
-      <t>テイシュツサキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オオヤマ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コバヤシ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>自分が学習した項目について、K列に学習した日付、M列に●印、O列に実作業時間を記載</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -4035,6 +4022,19 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>提出先：高田 h_takada@freestyles.jp  (CC:人事部 fs_jinji@freestyles.jp　)</t>
+    <rPh sb="0" eb="3">
+      <t>テイシュツサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タカダ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ジンジブ</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
@@ -4731,15 +4731,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4761,42 +4752,21 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF003366"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79989013336588644"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006600"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF003366"/>
@@ -7859,7 +7829,7 @@
   <dimension ref="B2:W156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="O92" sqref="O92"/>
@@ -7989,7 +7959,7 @@
         <v>262</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L9" s="50" t="s">
         <v>245</v>
@@ -12446,7 +12416,7 @@
         <v>262</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L9" s="50" t="s">
         <v>245</v>
@@ -22480,7 +22450,7 @@
   <sheetData>
     <row r="2" spans="2:23" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="56" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="2:23" s="56" customFormat="1" x14ac:dyDescent="0.4">
@@ -22498,92 +22468,92 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="52" t="s">
         <v>729</v>
       </c>
       <c r="E6" s="52"/>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="98" t="s">
         <v>730</v>
       </c>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91" t="s">
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98" t="s">
         <v>731</v>
       </c>
-      <c r="K6" s="91"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91" t="s">
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98" t="s">
         <v>732</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92" t="s">
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="99" t="s">
         <v>733</v>
       </c>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="93" t="s">
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="90" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="93" t="s">
         <v>735</v>
       </c>
-      <c r="H7" s="97"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="6" t="s">
         <v>736</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="96" t="s">
+      <c r="K7" s="93" t="s">
         <v>735</v>
       </c>
-      <c r="L7" s="97"/>
+      <c r="L7" s="94"/>
       <c r="M7" s="6" t="s">
         <v>736</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="O7" s="96" t="s">
+      <c r="O7" s="93" t="s">
         <v>735</v>
       </c>
-      <c r="P7" s="97"/>
+      <c r="P7" s="94"/>
       <c r="Q7" s="6" t="s">
         <v>736</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="S7" s="98" t="s">
+      <c r="S7" s="95" t="s">
         <v>735</v>
       </c>
-      <c r="T7" s="99"/>
+      <c r="T7" s="96"/>
       <c r="U7" s="6" t="s">
         <v>736</v>
       </c>
       <c r="V7" s="6"/>
-      <c r="W7" s="94"/>
+      <c r="W7" s="91"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
       <c r="F8" s="6"/>
@@ -22623,7 +22593,7 @@
       <c r="V8" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="W8" s="95"/>
+      <c r="W8" s="92"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B9" s="45">
@@ -22903,51 +22873,38 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="R6:V6"/>
     <mergeCell ref="W6:W8"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="R6:V6"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
+  <conditionalFormatting sqref="W9:W10">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$W9="Jr."</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$W9="LEAD"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$W9="MID"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="expression" dxfId="8" priority="34">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>$W13="Jr."</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="35">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>$W13="LEAD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>$W13="MID"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="5" priority="91">
-      <formula>$W10="Jr."</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="92">
-      <formula>$W10="LEAD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="3" priority="153">
-      <formula>$W10="MID"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W9">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$W9="Jr."</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$W9="LEAD"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$W9="MID"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22959,9 +22916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E183820-4A7B-489B-A178-443275D1364E}">
   <dimension ref="B2:D156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -22996,15 +22953,15 @@
         <v>755</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="65" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C10" s="66">
         <v>44915</v>
@@ -23015,7 +22972,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="65" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C11" s="66">
         <v>44925</v>
@@ -23026,7 +22983,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="65" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C12" s="66">
         <v>44931</v>
@@ -23037,7 +22994,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="65" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C13" s="66">
         <v>44936</v>
@@ -23048,7 +23005,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="77" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C14" s="66">
         <v>44946</v>
@@ -23495,7 +23452,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -23530,10 +23487,10 @@
         <v>755</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
@@ -23992,10 +23949,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A2:Q13"/>
+  <dimension ref="A2:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -24006,25 +23963,27 @@
     <col min="5" max="5" width="12.75" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9.625" style="5" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="9.25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="9" style="5"/>
-    <col min="11" max="11" width="9" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9" style="5"/>
-    <col min="14" max="14" width="2.75" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="5"/>
+    <col min="8" max="8" width="9.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="9.25" style="5" customWidth="1"/>
+    <col min="11" max="12" width="9" style="5"/>
+    <col min="13" max="13" width="9" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5"/>
+    <col min="16" max="16" width="2.75" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="56"/>
       <c r="B2" s="57" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C2" s="56"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="52" t="s">
         <v>729</v>
       </c>
@@ -24033,27 +23992,31 @@
         <v>757</v>
       </c>
       <c r="G6" s="53"/>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
+        <v>784</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54" t="s">
         <v>733</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="L6" s="53" t="s">
-        <v>785</v>
-      </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="10" t="s">
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="N6" s="53" t="s">
+        <v>784</v>
+      </c>
+      <c r="O6" s="53"/>
+      <c r="P6" s="10" t="s">
         <v>751</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="Q6" s="55" t="s">
         <v>753</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="6" t="s">
@@ -24062,27 +24025,33 @@
       <c r="G7" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="55" t="s">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="55" t="s">
         <v>752</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <v>2022</v>
       </c>
@@ -24103,29 +24072,37 @@
         <f ca="1">SUM(F$8:F8)</f>
         <v>4.5</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="44">
+        <f ca="1">SUMIFS(INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D8,INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E8)</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="9">
-        <f ca="1">SUMPRODUCT((MOD(COLUMN(F8:OFFSET(I8,0,-2)),2)=0)*(F8:OFFSET(I8,0,-2)))</f>
+        <f ca="1">SUM(H$8:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="9">
+        <f ca="1">SUMPRODUCT((MOD(COLUMN(F8:OFFSET(K8,0,-2)),2)=0)*(F8:OFFSET(K8,0,-2)))</f>
         <v>4.5</v>
       </c>
-      <c r="J8" s="9">
-        <f ca="1">SUM(I$8:I8)</f>
+      <c r="L8" s="9">
+        <f ca="1">SUM(K$8:K8)</f>
         <v>4.5</v>
       </c>
-      <c r="L8" s="44">
-        <f ca="1">SUMIFS(INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D8,INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E8)</f>
+      <c r="N8" s="44">
+        <f ca="1">SUMIFS(INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D8,INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E8)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="9">
-        <f ca="1">SUM(L$8:L9)</f>
+      <c r="O8" s="9">
+        <f ca="1">SUM(N$8:N9)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
         <v>2023</v>
       </c>
@@ -24148,31 +24125,39 @@
         <f ca="1">SUM(F$8:F9)</f>
         <v>12</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="83">
+        <f ca="1">SUMIFS(INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D9,INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E9)</f>
+        <v>0</v>
+      </c>
       <c r="I9" s="9">
-        <f ca="1">SUMPRODUCT((MOD(COLUMN(F9:OFFSET(I9,0,-2)),2)=0)*(F9:OFFSET(I9,0,-2)))</f>
+        <f ca="1">SUM(H$9:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="9">
+        <f ca="1">SUMPRODUCT((MOD(COLUMN(F9:OFFSET(K9,0,-2)),2)=0)*(F9:OFFSET(K9,0,-2)))</f>
         <v>7.5</v>
       </c>
-      <c r="J9" s="9">
-        <f ca="1">SUM(I$8:I9)</f>
+      <c r="L9" s="9">
+        <f ca="1">SUM(K$8:K9)</f>
         <v>12</v>
       </c>
-      <c r="L9" s="83">
-        <f ca="1">SUMIFS(INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D9,INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E9)</f>
+      <c r="N9" s="83">
+        <f ca="1">SUMIFS(INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D9,INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="9">
-        <f ca="1">SUM(L$9:L9)</f>
+      <c r="O9" s="9">
+        <f ca="1">SUM(N$9:N9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="55" t="s">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="55" t="s">
         <v>758</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
@@ -24182,24 +24167,26 @@
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="55" t="s">
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="55" t="s">
         <v>759</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="N11" s="10"/>
-      <c r="O11" s="55" t="s">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="55" t="s">
         <v>760</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
         <v>754</v>
       </c>
@@ -24218,8 +24205,10 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
         <v>739</v>
       </c>
@@ -24239,30 +24228,38 @@
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <f ca="1">SUM(F8:F13)</f>
+        <f ca="1">SUM($F$8:F13)</f>
         <v>12</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="44">
+        <f ca="1">SUMIFS(INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D13,INDIRECT("'"&amp;H$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E13)</f>
+        <v>0</v>
+      </c>
       <c r="I13" s="9">
-        <f ca="1">SUMPRODUCT((MOD(COLUMN(F13:OFFSET(I13,0,-2)),2)=0)*(F13:OFFSET(I13,0,-2)))</f>
+        <f ca="1">SUM(H8:H13)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="9">
-        <f ca="1">SUM(I8:I13)</f>
+      <c r="J13" s="44"/>
+      <c r="K13" s="9">
+        <f ca="1">SUMPRODUCT((MOD(COLUMN(F13:OFFSET(K13,0,-2)),2)=0)*(F13:OFFSET(K13,0,-2)))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f ca="1">SUM(K8:K13)</f>
         <v>12</v>
       </c>
-      <c r="L13" s="44">
-        <f ca="1">SUMIFS(INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D14,INDIRECT("'"&amp;L$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E14)</f>
+      <c r="N13" s="44">
+        <f ca="1">SUMIFS(INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$D:$D"),INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$C:$C"),"&gt;="&amp;$D14,INDIRECT("'"&amp;N$6&amp;"'"&amp;"!$C:$C"),"&lt;="&amp;$E14)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="9">
-        <f ca="1">SUM(L8:L13)</f>
+      <c r="O13" s="9">
+        <f ca="1">SUM(N8:N13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -45145,8 +45142,8 @@
   </sheetPr>
   <dimension ref="B2:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -45170,7 +45167,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -45178,7 +45175,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -45194,7 +45191,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
@@ -45231,7 +45228,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
@@ -45239,7 +45236,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -45302,23 +45299,23 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" s="84" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29" s="84" t="s">
+        <v>793</v>
+      </c>
+      <c r="C29" s="84" t="s">
         <v>794</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" s="84" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" x14ac:dyDescent="0.4">
@@ -45333,12 +45330,12 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="89" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B37" s="89" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -45352,7 +45349,7 @@
   <dimension ref="B2:W161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="O158" sqref="O158"/>
@@ -45481,7 +45478,7 @@
         <v>262</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L9" s="50" t="s">
         <v>245</v>
@@ -52810,17 +52807,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cd53bf70-8e6f-4da2-af82-26fc64f86641" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd81839b-0946-4c0b-8c9f-38b7545f6b39">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B742B7C413A0C44D8D123CB1ED143E31" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52f258332a53e327190baade0bb72dec">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd81839b-0946-4c0b-8c9f-38b7545f6b39" xmlns:ns3="cd53bf70-8e6f-4da2-af82-26fc64f86641" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5b17f79d63ff7f13ca70cf6df950884" ns2:_="" ns3:_="">
     <xsd:import namespace="bd81839b-0946-4c0b-8c9f-38b7545f6b39"/>
@@ -53015,6 +53001,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cd53bf70-8e6f-4da2-af82-26fc64f86641" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd81839b-0946-4c0b-8c9f-38b7545f6b39">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -53025,12 +53022,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3CC509-AC8D-41FF-84FE-DE48381C84EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -53049,6 +53040,12 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs/>
